--- a/plantilla.xlsx
+++ b/plantilla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alberto\source\repos\graficosExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E1B27D-60F3-4410-8584-FA240B77DFB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D45EB3-A498-46E5-87A0-024735210508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="41925" yWindow="1215" windowWidth="28770" windowHeight="18570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$I$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -513,10 +513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A5:F32"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -528,71 +528,127 @@
     <col min="18" max="18" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
+    <row r="1" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -601,57 +657,57 @@
         <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="3">
         <v>2</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -662,66 +718,66 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -732,41 +788,41 @@
     </row>
     <row r="19" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3">
         <v>0</v>
       </c>
       <c r="D19" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="3">
         <v>3</v>
@@ -774,13 +830,13 @@
     </row>
     <row r="22" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C22" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
@@ -788,35 +844,35 @@
     </row>
     <row r="23" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23" s="3">
         <v>2</v>
       </c>
       <c r="C23" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>1</v>
@@ -825,96 +881,40 @@
         <v>0</v>
       </c>
       <c r="D25" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" s="3">
         <v>3</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="3">
         <v>2</v>
       </c>
       <c r="D27" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3">
-        <v>3</v>
-      </c>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="3">
-        <v>2</v>
-      </c>
-      <c r="D31" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
-      <c r="B32" s="3"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
